--- a/document/已完成工作.xlsx
+++ b/document/已完成工作.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F956C3-F467-449B-8166-4DEE76DA0E29}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214A3D29-752B-4DC7-919D-716B3F1829FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="-1485" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$7</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>工作项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录静态页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +95,54 @@
   </si>
   <si>
     <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页-获取所有分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页-获取最新产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页获取热门产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目框架搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页获取banner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页获取Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台-修改分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台-获取单个分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台-增加分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台-所有分类接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,21 +285,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,8 +312,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,274 +638,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>43592</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="4" t="s">
+      <c r="D2" s="5">
+        <v>43592</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>43592</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="5">
+        <v>43592</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>43592</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="4" t="s">
+      <c r="D4" s="5">
+        <v>43592</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>43594</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="5">
+        <v>43594</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>43594</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5" t="s">
+      <c r="D6" s="5">
+        <v>43594</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>43594</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="D7" s="5">
+        <v>43594</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5">
+        <v>43596</v>
+      </c>
+      <c r="D10" s="5">
+        <v>43596</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="5">
         <v>43596</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8">
+      <c r="D11" s="5">
         <v>43596</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="13">
+        <v>43592</v>
+      </c>
+      <c r="D13" s="13">
+        <v>43594</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13">
+        <v>43594</v>
+      </c>
+      <c r="D14" s="13">
+        <v>43594</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13">
+        <v>43595</v>
+      </c>
+      <c r="D15" s="13">
+        <v>43595</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13">
+        <v>43595</v>
+      </c>
+      <c r="D16" s="13">
+        <v>43595</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="13">
+        <v>43596</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13">
+        <v>43596</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="13">
+        <v>43597</v>
+      </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="13">
+        <v>43597</v>
+      </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13">
+        <v>43597</v>
+      </c>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="13">
+        <v>43597</v>
+      </c>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D7" xr:uid="{EDA6F757-37BB-4BE5-80E3-353B1DC33A74}"/>
-  <mergeCells count="3">
+  <autoFilter ref="A1:E7" xr:uid="{EDA6F757-37BB-4BE5-80E3-353B1DC33A74}"/>
+  <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/已完成工作.xlsx
+++ b/document/已完成工作.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214A3D29-752B-4DC7-919D-716B3F1829FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-1485" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="-1485" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +14,8 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>工作项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,8 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +293,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,24 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -359,7 +358,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{1778B3C4-EEB3-424B-97EF-35AD4B48C867}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -418,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -453,7 +452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -630,33 +629,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="12" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -669,11 +668,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="5">
@@ -686,9 +685,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A3" s="14"/>
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5">
@@ -701,9 +700,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="15" t="s">
+    <row r="4" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5">
@@ -716,9 +715,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5">
@@ -731,9 +730,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5">
@@ -746,9 +745,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="1:5" ht="39" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="5">
@@ -761,11 +760,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5"/>
@@ -774,18 +773,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="17"/>
+    <row r="9" spans="1:5" ht="51" customHeight="1">
+      <c r="A9" s="18"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5">
@@ -798,9 +797,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5">
@@ -813,205 +812,211 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="17"/>
+    <row r="12" spans="1:5" ht="35.25" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="7">
         <v>43592</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="7">
         <v>43594</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="7">
         <v>43594</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="7">
         <v>43594</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="7">
         <v>43595</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="7">
         <v>43595</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="7">
         <v>43595</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="7">
         <v>43595</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="7">
         <v>43596</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="17" t="s">
+      <c r="D17" s="7">
+        <v>43596</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="7">
         <v>43596</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="17" t="s">
+      <c r="D18" s="7">
+        <v>43596</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="7">
         <v>43597</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="7">
         <v>43597</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="7">
         <v>43597</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="7">
         <v>43597</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1"/>
-      <c r="B23" s="17"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1"/>
-      <c r="B24" s="17"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="17"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="1"/>
-      <c r="B26" s="17"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
-      <c r="B27" s="17"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
-      <c r="B28" s="17"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E7" xr:uid="{EDA6F757-37BB-4BE5-80E3-353B1DC33A74}"/>
+  <autoFilter ref="A1:E7"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A10:A12"/>

--- a/document/已完成工作.xlsx
+++ b/document/已完成工作.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B115BCDB-2098-4716-A470-0A0D6A80BB3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-1485" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,8 +15,8 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>工作项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,14 +143,34 @@
   </si>
   <si>
     <t>后台-所有分类接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录静态页面 对接接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站全局的登录状态缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品分类静态页面 对接接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站登出逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品管理列表静态页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,7 +379,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -629,29 +650,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.125" customWidth="1"/>
     <col min="2" max="2" width="29.625" style="12" customWidth="1"/>
     <col min="3" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1">
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -668,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24.95" customHeight="1">
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
@@ -685,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24.95" customHeight="1">
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="9" t="s">
         <v>6</v>
@@ -700,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24.95" customHeight="1">
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="9" t="s">
         <v>5</v>
@@ -715,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.95" customHeight="1">
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="9" t="s">
         <v>4</v>
@@ -730,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24.95" customHeight="1">
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="9" t="s">
         <v>8</v>
@@ -745,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" customHeight="1">
+    <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="10" t="s">
         <v>9</v>
@@ -760,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24.95" customHeight="1">
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
@@ -773,14 +794,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1">
+    <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="11"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="24.95" customHeight="1">
+    <row r="10" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -797,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24.95" customHeight="1">
+    <row r="11" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="11" t="s">
         <v>13</v>
@@ -812,216 +833,282 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A13" s="13" t="s">
+    <row r="12" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5">
+        <v>43597</v>
+      </c>
+      <c r="D12" s="5">
+        <v>43597</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5">
+        <v>43598</v>
+      </c>
+      <c r="D13" s="5">
+        <v>43598</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5">
+        <v>43601</v>
+      </c>
+      <c r="D14" s="5">
+        <v>43601</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43601</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43601</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
+      <c r="B16" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5">
+        <v>43602</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C17" s="7">
         <v>43592</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D17" s="7">
         <v>43594</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <v>43594</v>
-      </c>
-      <c r="D14" s="7">
-        <v>43594</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7">
-        <v>43595</v>
-      </c>
-      <c r="D15" s="7">
-        <v>43595</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7">
-        <v>43595</v>
-      </c>
-      <c r="D16" s="7">
-        <v>43595</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="7">
-        <v>43596</v>
-      </c>
-      <c r="D17" s="7">
-        <v>43596</v>
-      </c>
       <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24.95" customHeight="1">
+    <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C18" s="7">
-        <v>43596</v>
+        <v>43594</v>
       </c>
       <c r="D18" s="7">
-        <v>43596</v>
+        <v>43594</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24.95" customHeight="1">
+    <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7">
-        <v>43597</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="24.95" customHeight="1">
+        <v>43595</v>
+      </c>
+      <c r="D19" s="7">
+        <v>43595</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>43597</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="24.95" customHeight="1">
+        <v>43595</v>
+      </c>
+      <c r="D20" s="7">
+        <v>43595</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
+        <v>43596</v>
+      </c>
+      <c r="D21" s="7">
+        <v>43596</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7">
+        <v>43596</v>
+      </c>
+      <c r="D22" s="7">
+        <v>43596</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7">
         <v>43597</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.95" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="7">
-        <v>43597</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="7">
+        <v>43597</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="7">
+        <v>43597</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7">
+        <v>43597</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="11"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="11"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E7"/>
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A10:A16"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="A17:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/已完成工作.xlsx
+++ b/document/已完成工作.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B115BCDB-2098-4716-A470-0A0D6A80BB3D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225FB973-23FC-492D-A369-3AA918483FC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>工作项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>产品管理列表静态页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传附件接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,11 +662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,18 +1005,22 @@
     <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7">
-        <v>43597</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+        <v>43602</v>
+      </c>
+      <c r="D23" s="7">
+        <v>43602</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7">
         <v>43597</v>
@@ -1023,7 +1031,7 @@
     <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <v>43597</v>
@@ -1032,9 +1040,9 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>43597</v>
@@ -1042,10 +1050,14 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="1"/>
+    <row r="27" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7">
+        <v>43597</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
@@ -1085,10 +1097,11 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -1101,6 +1114,12 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1108,7 +1127,7 @@
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A17:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
